--- a/University List.xlsx
+++ b/University List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayantipusp/workspace/orangeleaf/futureeducation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2420211-3F2C-2343-AF23-11D584231389}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61134E03-6D97-CA49-BE18-2CBD1E515ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="30020" windowHeight="17440" activeTab="4" xr2:uid="{025C460C-21E0-FF40-80F0-1275442A0476}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="30020" windowHeight="17440" activeTab="1" xr2:uid="{025C460C-21E0-FF40-80F0-1275442A0476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509299F9-6983-484E-AF90-6275D205A867}">
   <dimension ref="A1:J370"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19916,7 +19916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61571F79-5F8B-D049-8A34-518FDF5919B3}">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
